--- a/程序/四元组分数据处理以及学习/蒙特卡诺交叉验证各个模型损失.xlsx
+++ b/程序/四元组分数据处理以及学习/蒙特卡诺交叉验证各个模型损失.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8428971724142603</v>
+        <v>0.8428971724142601</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7968528955878954</v>
+        <v>0.7968528955878952</v>
       </c>
       <c r="E2" t="n">
-        <v>26.75823116197623</v>
+        <v>26.75823116197624</v>
       </c>
       <c r="F2" t="n">
         <v>35.73566053711924</v>
@@ -515,7 +515,7 @@
         <v>5.172835891653265</v>
       </c>
       <c r="H2" t="n">
-        <v>5.977931125156865</v>
+        <v>5.977931125156868</v>
       </c>
       <c r="I2" t="n">
         <v>3.801876839236344</v>
@@ -524,7 +524,7 @@
         <v>4.488430593370125</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8974230310516286</v>
+        <v>0.8974230310516284</v>
       </c>
       <c r="L2" t="n">
         <v>1.060747130886148</v>
@@ -543,7 +543,7 @@
         <v>0.9744245859110926</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8110664778191188</v>
+        <v>0.8110664778191184</v>
       </c>
       <c r="E3" t="n">
         <v>4.356082272808</v>
@@ -552,16 +552,16 @@
         <v>33.23534555059087</v>
       </c>
       <c r="G3" t="n">
-        <v>2.087122965425852</v>
+        <v>2.087122965425851</v>
       </c>
       <c r="H3" t="n">
-        <v>5.765010455375677</v>
+        <v>5.765010455375675</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5791788709706979</v>
+        <v>0.5791788709706976</v>
       </c>
       <c r="J3" t="n">
-        <v>4.320822996672725</v>
+        <v>4.320822996672726</v>
       </c>
       <c r="K3" t="n">
         <v>0.1364846177379823</v>
@@ -580,25 +580,25 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9101046147429014</v>
+        <v>0.9101046147429012</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8458492025259047</v>
+        <v>0.8458492025259046</v>
       </c>
       <c r="E4" t="n">
         <v>15.31125528464199</v>
       </c>
       <c r="F4" t="n">
-        <v>27.1167073043068</v>
+        <v>27.11670730430679</v>
       </c>
       <c r="G4" t="n">
-        <v>3.912959913497964</v>
+        <v>3.912959913497963</v>
       </c>
       <c r="H4" t="n">
-        <v>5.207370478879604</v>
+        <v>5.207370478879601</v>
       </c>
       <c r="I4" t="n">
-        <v>3.035706662748199</v>
+        <v>3.035706662748198</v>
       </c>
       <c r="J4" t="n">
         <v>4.026188872470343</v>
@@ -607,7 +607,7 @@
         <v>0.7199823710149892</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9542810392082294</v>
+        <v>0.9542810392082293</v>
       </c>
     </row>
     <row r="5">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9311695152258367</v>
+        <v>0.9311695152258362</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8525283506464697</v>
+        <v>0.8525283506464698</v>
       </c>
       <c r="E5" t="n">
         <v>11.72341740044613</v>
@@ -635,19 +635,19 @@
         <v>3.423947634010504</v>
       </c>
       <c r="H5" t="n">
-        <v>5.093307039901781</v>
+        <v>5.093307039901783</v>
       </c>
       <c r="I5" t="n">
-        <v>2.597880517381765</v>
+        <v>2.597880517381766</v>
       </c>
       <c r="J5" t="n">
-        <v>3.910510608894964</v>
+        <v>3.910510608894965</v>
       </c>
       <c r="K5" t="n">
         <v>0.6157157085625505</v>
       </c>
       <c r="L5" t="n">
-        <v>0.925366618947609</v>
+        <v>0.9253666189476087</v>
       </c>
     </row>
     <row r="6">
@@ -660,13 +660,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9599843101088193</v>
+        <v>0.9599843101088192</v>
       </c>
       <c r="D6" t="n">
-        <v>0.847711840997511</v>
+        <v>0.8477118409975107</v>
       </c>
       <c r="E6" t="n">
-        <v>6.815593943589593</v>
+        <v>6.815593943589592</v>
       </c>
       <c r="F6" t="n">
         <v>26.78905008114662</v>
@@ -675,16 +675,16 @@
         <v>2.61066925204814</v>
       </c>
       <c r="H6" t="n">
-        <v>5.175813953490468</v>
+        <v>5.175813953490466</v>
       </c>
       <c r="I6" t="n">
         <v>1.8092260611281</v>
       </c>
       <c r="J6" t="n">
-        <v>3.928880893118013</v>
+        <v>3.928880893118014</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4276258924173471</v>
+        <v>0.4276258924173472</v>
       </c>
       <c r="L6" t="n">
         <v>0.9295063936176234</v>
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9373770610216002</v>
+        <v>0.9373770610216001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8589901531115053</v>
+        <v>0.8589901531115057</v>
       </c>
       <c r="E7" t="n">
         <v>10.66612933056115</v>
@@ -712,7 +712,7 @@
         <v>24.80507923251576</v>
       </c>
       <c r="G7" t="n">
-        <v>3.265904060219949</v>
+        <v>3.265904060219947</v>
       </c>
       <c r="H7" t="n">
         <v>4.980469780303436</v>
@@ -721,13 +721,13 @@
         <v>2.498392402710288</v>
       </c>
       <c r="J7" t="n">
-        <v>3.766533809277771</v>
+        <v>3.766533809277773</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5933847902581618</v>
+        <v>0.5933847902581617</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8912104020306794</v>
+        <v>0.8912104020306796</v>
       </c>
     </row>
     <row r="8">
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9605362761386235</v>
+        <v>0.9605362761386236</v>
       </c>
       <c r="D8" t="n">
-        <v>0.849321303859876</v>
+        <v>0.8493213038598759</v>
       </c>
       <c r="E8" t="n">
         <v>6.721581411504514</v>
@@ -752,13 +752,13 @@
         <v>26.50592904595869</v>
       </c>
       <c r="G8" t="n">
-        <v>2.592601282786174</v>
+        <v>2.592601282786175</v>
       </c>
       <c r="H8" t="n">
-        <v>5.148390918137306</v>
+        <v>5.148390918137308</v>
       </c>
       <c r="I8" t="n">
-        <v>1.804362655516924</v>
+        <v>1.804362655516925</v>
       </c>
       <c r="J8" t="n">
         <v>3.864528271911888</v>
@@ -780,34 +780,34 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-14.06507783401812</v>
+        <v>-14.06508374043438</v>
       </c>
       <c r="D9" t="n">
-        <v>-13.77110255169067</v>
+        <v>-13.7711083077626</v>
       </c>
       <c r="E9" t="n">
-        <v>2565.929852127067</v>
+        <v>2565.930858125838</v>
       </c>
       <c r="F9" t="n">
-        <v>2598.388532653589</v>
+        <v>2598.389545205713</v>
       </c>
       <c r="G9" t="n">
-        <v>50.65500816431744</v>
+        <v>50.65501809422084</v>
       </c>
       <c r="H9" t="n">
-        <v>50.97439094931482</v>
+        <v>50.97440088128269</v>
       </c>
       <c r="I9" t="n">
-        <v>47.92779037843761</v>
+        <v>47.92779974643409</v>
       </c>
       <c r="J9" t="n">
-        <v>48.28047104788393</v>
+        <v>48.28048039973714</v>
       </c>
       <c r="K9" t="n">
-        <v>11.43061928722729</v>
+        <v>11.43062150609842</v>
       </c>
       <c r="L9" t="n">
-        <v>11.51772080523484</v>
+        <v>11.51772301402773</v>
       </c>
     </row>
     <row r="10">
@@ -820,16 +820,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9429354472087575</v>
+        <v>0.9429354472087577</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8457951482924756</v>
+        <v>0.8457951482924757</v>
       </c>
       <c r="E10" t="n">
         <v>9.719408098555819</v>
       </c>
       <c r="F10" t="n">
-        <v>27.12621599871821</v>
+        <v>27.12621599871822</v>
       </c>
       <c r="G10" t="n">
         <v>3.117596525940427</v>
@@ -841,13 +841,13 @@
         <v>2.287765380204843</v>
       </c>
       <c r="J10" t="n">
-        <v>3.964669194797041</v>
+        <v>3.96466919479704</v>
       </c>
       <c r="K10" t="n">
         <v>0.544048983254145</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9376020727776292</v>
+        <v>0.9376020727776291</v>
       </c>
     </row>
     <row r="11">
@@ -856,38 +856,38 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NeuralNetTorch</t>
+          <t>LightGBMLarge</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.5767224243313677</v>
+        <v>0.9544039120595628</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5849417741299704</v>
+        <v>0.8493445764028384</v>
       </c>
       <c r="E11" t="n">
-        <v>72.09392338429325</v>
+        <v>7.766064302860227</v>
       </c>
       <c r="F11" t="n">
-        <v>73.01300161651011</v>
+        <v>26.50183516680864</v>
       </c>
       <c r="G11" t="n">
-        <v>8.490814058987114</v>
+        <v>2.786765921791821</v>
       </c>
       <c r="H11" t="n">
-        <v>8.544764573498213</v>
+        <v>5.147993314565265</v>
       </c>
       <c r="I11" t="n">
-        <v>6.37429830842619</v>
+        <v>2.029373921657695</v>
       </c>
       <c r="J11" t="n">
-        <v>6.50617418891568</v>
+        <v>3.892754646000674</v>
       </c>
       <c r="K11" t="n">
-        <v>1.501049084357504</v>
+        <v>0.4814094710567361</v>
       </c>
       <c r="L11" t="n">
-        <v>1.531945597334179</v>
+        <v>0.9209781959918976</v>
       </c>
     </row>
     <row r="12">
@@ -896,78 +896,38 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LightGBMLarge</t>
+          <t>WeightedEnsemble_L2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9544039120595628</v>
+        <v>0.938861267352214</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8493445764028386</v>
+        <v>0.8632470567853293</v>
       </c>
       <c r="E12" t="n">
-        <v>7.766064302860222</v>
+        <v>10.41333479658019</v>
       </c>
       <c r="F12" t="n">
-        <v>26.50183516680866</v>
+        <v>24.05624618826829</v>
       </c>
       <c r="G12" t="n">
-        <v>2.786765921791822</v>
+        <v>3.226969909463086</v>
       </c>
       <c r="H12" t="n">
-        <v>5.147993314565263</v>
+        <v>4.904716728646855</v>
       </c>
       <c r="I12" t="n">
-        <v>2.029373921657695</v>
+        <v>2.438704339812332</v>
       </c>
       <c r="J12" t="n">
-        <v>3.892754646000675</v>
+        <v>3.736257432623906</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4814094710567361</v>
+        <v>0.5775104381331817</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9209781959918976</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>WeightedEnsemble_L2</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9388612676126334</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.863247056856105</v>
-      </c>
-      <c r="E13" t="n">
-        <v>10.41333475222477</v>
-      </c>
-      <c r="F13" t="n">
-        <v>24.05624617581804</v>
-      </c>
-      <c r="G13" t="n">
-        <v>3.226969902590473</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4.90471672737764</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.438704290722395</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.736257432623905</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.5775104264438283</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.8841395034200447</v>
+        <v>0.8841395033964584</v>
       </c>
     </row>
   </sheetData>
